--- a/gitメモ/git操作.xlsx
+++ b/gitメモ/git操作.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBF7449-05B4-4ADC-AFFB-9D9E24167B25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF17BA-E302-4A0B-8B02-38983030DBF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="git操作" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,57 +25,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>安装git</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>git-bash.exe</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>命令：</t>
     <rPh sb="0" eb="2">
       <t>メイレイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>复制key</t>
+  </si>
+  <si>
+    <t>文件：C:\Users\admin\.ssh</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>关联key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git config --global user.email "你的github邮箱地址"</t>
+  </si>
+  <si>
+    <t>切换到本地目录后 使用git clone</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>添加文件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.不可省，添加所有文件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git-bash.exe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑦</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git commit -m "comment"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上传到git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git push -u origin main</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>main:分支名</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ssh-keygen -t rsa -C "your_email@youremail.com"</t>
-  </si>
-  <si>
-    <t>复制key</t>
-  </si>
-  <si>
-    <t>文件：C:\Users\admin\.ssh</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>关联key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>git config --global user.name "你的github用户名"</t>
-  </si>
-  <si>
-    <t>git config --global user.email "你的github邮箱地址"</t>
-  </si>
-  <si>
-    <t>切换到本地目录后 使用git clone</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global user.name "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>你的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git remote add origin git@git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>hub.com:XXXX.git</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑧</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新文件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git add 文件名</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -103,6 +247,20 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -126,9 +284,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,62 +706,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H52"/>
+  <dimension ref="A2:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="C9" t="s">
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+    <row r="71" spans="1:3">
+      <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="72" spans="1:3">
+      <c r="C72" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="C77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/gitメモ/git操作.xlsx
+++ b/gitメモ/git操作.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\document-management\document-management\gitメモ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF17BA-E302-4A0B-8B02-38983030DBF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65D7187-0574-4512-B9A7-893A44C2CF46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>安装git</t>
     <phoneticPr fontId="2"/>
@@ -200,6 +200,19 @@
   <si>
     <t>git add 文件名</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git config --global http.sslBackend "openssl"</t>
+  </si>
+  <si>
+    <t>git config --global http.sslCAInfo "C:\Program Files\Git\usr\ssl\cert.pem"</t>
+  </si>
+  <si>
+    <t>fatal: unable to access 'https://github.com/ape-s-plan/document-management.git/': Failed to connect to github.com port 443: Timed out</t>
   </si>
 </sst>
 </file>
@@ -706,11 +719,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H82"/>
+  <dimension ref="A2:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -833,14 +844,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:3">
       <c r="C81" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="1:3">
       <c r="C82" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
